--- a/parameter/0.raw.data/manualcount/manual_count.xlsx
+++ b/parameter/0.raw.data/manualcount/manual_count.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10912"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rainer/git/0.RPackages/LEEF/LEEF.parameter/parameter/manualcount/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Romana\Documents\GitHub\LEEF.parameter\parameter\0.raw.data\manualcount\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80A9307-253B-E746-AD19-3842BD382D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25200" windowHeight="20820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25200" windowHeight="20820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
   <si>
     <t>bottle</t>
   </si>
@@ -130,12 +129,18 @@
   </si>
   <si>
     <t>b_30</t>
+  </si>
+  <si>
+    <t>b_31</t>
+  </si>
+  <si>
+    <t>b_32</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -469,16 +474,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -502,7 +507,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -512,7 +517,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -522,7 +527,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -532,7 +537,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -542,7 +547,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -552,7 +557,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -562,7 +567,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -572,7 +577,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -582,7 +587,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -592,7 +597,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -602,7 +607,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -612,7 +617,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -622,7 +627,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -632,7 +637,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -642,7 +647,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -652,7 +657,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -662,7 +667,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -672,7 +677,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -682,7 +687,7 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -692,7 +697,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -702,7 +707,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -712,7 +717,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -722,7 +727,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -732,7 +737,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -742,7 +747,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -752,7 +757,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -762,7 +767,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
@@ -772,7 +777,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -782,7 +787,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
@@ -791,6 +796,26 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
